--- a/data_cripto/btc_nupl.xlsx
+++ b/data_cripto/btc_nupl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4578"/>
+  <dimension ref="A1:C4579"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78259,6 +78259,23 @@
         </is>
       </c>
     </row>
+    <row r="4579">
+      <c r="A4579" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="B4579" t="inlineStr">
+        <is>
+          <t>1752537600</t>
+        </is>
+      </c>
+      <c r="C4579" t="inlineStr">
+        <is>
+          <t>0.5853126172121983</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_nupl.xlsx
+++ b/data_cripto/btc_nupl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4579"/>
+  <dimension ref="A1:C4580"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78276,6 +78276,23 @@
         </is>
       </c>
     </row>
+    <row r="4580">
+      <c r="A4580" t="inlineStr">
+        <is>
+          <t>2025-07-16</t>
+        </is>
+      </c>
+      <c r="B4580" t="inlineStr">
+        <is>
+          <t>1752624000</t>
+        </is>
+      </c>
+      <c r="C4580" t="inlineStr">
+        <is>
+          <t>0.5731420003094471</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_nupl.xlsx
+++ b/data_cripto/btc_nupl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4580"/>
+  <dimension ref="A1:C4581"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78293,6 +78293,23 @@
         </is>
       </c>
     </row>
+    <row r="4581">
+      <c r="A4581" t="inlineStr">
+        <is>
+          <t>2025-07-17</t>
+        </is>
+      </c>
+      <c r="B4581" t="inlineStr">
+        <is>
+          <t>1752710400</t>
+        </is>
+      </c>
+      <c r="C4581" t="inlineStr">
+        <is>
+          <t>0.5787282355822981</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_nupl.xlsx
+++ b/data_cripto/btc_nupl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4581"/>
+  <dimension ref="A1:C4583"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78310,6 +78310,40 @@
         </is>
       </c>
     </row>
+    <row r="4582">
+      <c r="A4582" t="inlineStr">
+        <is>
+          <t>2025-07-18</t>
+        </is>
+      </c>
+      <c r="B4582" t="inlineStr">
+        <is>
+          <t>1752796800</t>
+        </is>
+      </c>
+      <c r="C4582" t="inlineStr">
+        <is>
+          <t>0.5806781243221293</t>
+        </is>
+      </c>
+    </row>
+    <row r="4583">
+      <c r="A4583" t="inlineStr">
+        <is>
+          <t>2025-07-19</t>
+        </is>
+      </c>
+      <c r="B4583" t="inlineStr">
+        <is>
+          <t>1752883200</t>
+        </is>
+      </c>
+      <c r="C4583" t="inlineStr">
+        <is>
+          <t>0.5709317140651975</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_nupl.xlsx
+++ b/data_cripto/btc_nupl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4583"/>
+  <dimension ref="A1:C4584"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78344,6 +78344,23 @@
         </is>
       </c>
     </row>
+    <row r="4584">
+      <c r="A4584" t="inlineStr">
+        <is>
+          <t>2025-07-20</t>
+        </is>
+      </c>
+      <c r="B4584" t="inlineStr">
+        <is>
+          <t>1752969600</t>
+        </is>
+      </c>
+      <c r="C4584" t="inlineStr">
+        <is>
+          <t>0.5708653384449924</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_nupl.xlsx
+++ b/data_cripto/btc_nupl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4584"/>
+  <dimension ref="A1:C4585"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78361,6 +78361,23 @@
         </is>
       </c>
     </row>
+    <row r="4585">
+      <c r="A4585" t="inlineStr">
+        <is>
+          <t>2025-07-21</t>
+        </is>
+      </c>
+      <c r="B4585" t="inlineStr">
+        <is>
+          <t>1753056000</t>
+        </is>
+      </c>
+      <c r="C4585" t="inlineStr">
+        <is>
+          <t>0.5704098821131273</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_nupl.xlsx
+++ b/data_cripto/btc_nupl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4585"/>
+  <dimension ref="A1:C4586"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78378,6 +78378,23 @@
         </is>
       </c>
     </row>
+    <row r="4586">
+      <c r="A4586" t="inlineStr">
+        <is>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="B4586" t="inlineStr">
+        <is>
+          <t>1753142400</t>
+        </is>
+      </c>
+      <c r="C4586" t="inlineStr">
+        <is>
+          <t>0.5676031325433607</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_nupl.xlsx
+++ b/data_cripto/btc_nupl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4586"/>
+  <dimension ref="A1:C4587"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78395,6 +78395,23 @@
         </is>
       </c>
     </row>
+    <row r="4587">
+      <c r="A4587" t="inlineStr">
+        <is>
+          <t>2025-07-23</t>
+        </is>
+      </c>
+      <c r="B4587" t="inlineStr">
+        <is>
+          <t>1753228800</t>
+        </is>
+      </c>
+      <c r="C4587" t="inlineStr">
+        <is>
+          <t>0.5747373675438803</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_nupl.xlsx
+++ b/data_cripto/btc_nupl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4587"/>
+  <dimension ref="A1:C4588"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78412,6 +78412,23 @@
         </is>
       </c>
     </row>
+    <row r="4588">
+      <c r="A4588" t="inlineStr">
+        <is>
+          <t>2025-07-24</t>
+        </is>
+      </c>
+      <c r="B4588" t="inlineStr">
+        <is>
+          <t>1753315200</t>
+        </is>
+      </c>
+      <c r="C4588" t="inlineStr">
+        <is>
+          <t>0.5689039118695342</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_nupl.xlsx
+++ b/data_cripto/btc_nupl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4588"/>
+  <dimension ref="A1:C4590"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78429,6 +78429,40 @@
         </is>
       </c>
     </row>
+    <row r="4589">
+      <c r="A4589" t="inlineStr">
+        <is>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="B4589" t="inlineStr">
+        <is>
+          <t>1753401600</t>
+        </is>
+      </c>
+      <c r="C4589" t="inlineStr">
+        <is>
+          <t>0.569806457175801</t>
+        </is>
+      </c>
+    </row>
+    <row r="4590">
+      <c r="A4590" t="inlineStr">
+        <is>
+          <t>2025-07-26</t>
+        </is>
+      </c>
+      <c r="B4590" t="inlineStr">
+        <is>
+          <t>1753488000</t>
+        </is>
+      </c>
+      <c r="C4590" t="inlineStr">
+        <is>
+          <t>0.5645685443445863</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_nupl.xlsx
+++ b/data_cripto/btc_nupl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4590"/>
+  <dimension ref="A1:C4591"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78463,6 +78463,23 @@
         </is>
       </c>
     </row>
+    <row r="4591">
+      <c r="A4591" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="B4591" t="inlineStr">
+        <is>
+          <t>1753574400</t>
+        </is>
+      </c>
+      <c r="C4591" t="inlineStr">
+        <is>
+          <t>0.5675465962840507</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_nupl.xlsx
+++ b/data_cripto/btc_nupl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4592"/>
+  <dimension ref="A1:C4593"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78497,6 +78497,23 @@
         </is>
       </c>
     </row>
+    <row r="4593">
+      <c r="A4593" t="inlineStr">
+        <is>
+          <t>2025-07-29</t>
+        </is>
+      </c>
+      <c r="B4593" t="inlineStr">
+        <is>
+          <t>1753747200</t>
+        </is>
+      </c>
+      <c r="C4593" t="inlineStr">
+        <is>
+          <t>0.5666310363262577</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_nupl.xlsx
+++ b/data_cripto/btc_nupl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4593"/>
+  <dimension ref="A1:C4594"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78514,6 +78514,23 @@
         </is>
       </c>
     </row>
+    <row r="4594">
+      <c r="A4594" t="inlineStr">
+        <is>
+          <t>2025-07-30</t>
+        </is>
+      </c>
+      <c r="B4594" t="inlineStr">
+        <is>
+          <t>1753833600</t>
+        </is>
+      </c>
+      <c r="C4594" t="inlineStr">
+        <is>
+          <t>0.5641779514208256</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_nupl.xlsx
+++ b/data_cripto/btc_nupl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4594"/>
+  <dimension ref="A1:C4595"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78531,6 +78531,23 @@
         </is>
       </c>
     </row>
+    <row r="4595">
+      <c r="A4595" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="B4595" t="inlineStr">
+        <is>
+          <t>1753920000</t>
+        </is>
+      </c>
+      <c r="C4595" t="inlineStr">
+        <is>
+          <t>0.5444916976330354</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_nupl.xlsx
+++ b/data_cripto/btc_nupl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4595"/>
+  <dimension ref="A1:C4596"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78548,6 +78548,23 @@
         </is>
       </c>
     </row>
+    <row r="4596">
+      <c r="A4596" t="inlineStr">
+        <is>
+          <t>2025-08-01</t>
+        </is>
+      </c>
+      <c r="B4596" t="inlineStr">
+        <is>
+          <t>1754006400</t>
+        </is>
+      </c>
+      <c r="C4596" t="inlineStr">
+        <is>
+          <t>0.558579577532203</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_nupl.xlsx
+++ b/data_cripto/btc_nupl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4596"/>
+  <dimension ref="A1:C4597"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78565,6 +78565,23 @@
         </is>
       </c>
     </row>
+    <row r="4597">
+      <c r="A4597" t="inlineStr">
+        <is>
+          <t>2025-08-02</t>
+        </is>
+      </c>
+      <c r="B4597" t="inlineStr">
+        <is>
+          <t>1754092800</t>
+        </is>
+      </c>
+      <c r="C4597" t="inlineStr">
+        <is>
+          <t>0.5492866553129186</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_nupl.xlsx
+++ b/data_cripto/btc_nupl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4597"/>
+  <dimension ref="A1:C4598"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78582,6 +78582,23 @@
         </is>
       </c>
     </row>
+    <row r="4598">
+      <c r="A4598" t="inlineStr">
+        <is>
+          <t>2025-08-03</t>
+        </is>
+      </c>
+      <c r="B4598" t="inlineStr">
+        <is>
+          <t>1754179200</t>
+        </is>
+      </c>
+      <c r="C4598" t="inlineStr">
+        <is>
+          <t>0.5450458753302376</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_nupl.xlsx
+++ b/data_cripto/btc_nupl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4598"/>
+  <dimension ref="A1:C4599"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78599,6 +78599,23 @@
         </is>
       </c>
     </row>
+    <row r="4599">
+      <c r="A4599" t="inlineStr">
+        <is>
+          <t>2025-08-04</t>
+        </is>
+      </c>
+      <c r="B4599" t="inlineStr">
+        <is>
+          <t>1754265600</t>
+        </is>
+      </c>
+      <c r="C4599" t="inlineStr">
+        <is>
+          <t>0.5510227421388106</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_nupl.xlsx
+++ b/data_cripto/btc_nupl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4599"/>
+  <dimension ref="A1:C4600"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78616,6 +78616,23 @@
         </is>
       </c>
     </row>
+    <row r="4600">
+      <c r="A4600" t="inlineStr">
+        <is>
+          <t>2025-08-05</t>
+        </is>
+      </c>
+      <c r="B4600" t="inlineStr">
+        <is>
+          <t>1754352000</t>
+        </is>
+      </c>
+      <c r="C4600" t="inlineStr">
+        <is>
+          <t>0.5532385363688249</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_nupl.xlsx
+++ b/data_cripto/btc_nupl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4600"/>
+  <dimension ref="A1:C4601"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78633,6 +78633,23 @@
         </is>
       </c>
     </row>
+    <row r="4601">
+      <c r="A4601" t="inlineStr">
+        <is>
+          <t>2025-08-06</t>
+        </is>
+      </c>
+      <c r="B4601" t="inlineStr">
+        <is>
+          <t>1754438400</t>
+        </is>
+      </c>
+      <c r="C4601" t="inlineStr">
+        <is>
+          <t>0.546513547661501</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_nupl.xlsx
+++ b/data_cripto/btc_nupl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4602"/>
+  <dimension ref="A1:C4603"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78667,6 +78667,23 @@
         </is>
       </c>
     </row>
+    <row r="4603">
+      <c r="A4603" t="inlineStr">
+        <is>
+          <t>2025-08-08</t>
+        </is>
+      </c>
+      <c r="B4603" t="inlineStr">
+        <is>
+          <t>1754611200</t>
+        </is>
+      </c>
+      <c r="C4603" t="inlineStr">
+        <is>
+          <t>0.5592852610640862</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_nupl.xlsx
+++ b/data_cripto/btc_nupl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4603"/>
+  <dimension ref="A1:C4604"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78684,6 +78684,23 @@
         </is>
       </c>
     </row>
+    <row r="4604">
+      <c r="A4604" t="inlineStr">
+        <is>
+          <t>2025-08-09</t>
+        </is>
+      </c>
+      <c r="B4604" t="inlineStr">
+        <is>
+          <t>1754697600</t>
+        </is>
+      </c>
+      <c r="C4604" t="inlineStr">
+        <is>
+          <t>0.5583992888108511</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_nupl.xlsx
+++ b/data_cripto/btc_nupl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4604"/>
+  <dimension ref="A1:C4606"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78701,6 +78701,40 @@
         </is>
       </c>
     </row>
+    <row r="4605">
+      <c r="A4605" t="inlineStr">
+        <is>
+          <t>2025-08-10</t>
+        </is>
+      </c>
+      <c r="B4605" t="inlineStr">
+        <is>
+          <t>1754784000</t>
+        </is>
+      </c>
+      <c r="C4605" t="inlineStr">
+        <is>
+          <t>0.5566488388654166</t>
+        </is>
+      </c>
+    </row>
+    <row r="4606">
+      <c r="A4606" t="inlineStr">
+        <is>
+          <t>2025-08-11</t>
+        </is>
+      </c>
+      <c r="B4606" t="inlineStr">
+        <is>
+          <t>1754870400</t>
+        </is>
+      </c>
+      <c r="C4606" t="inlineStr">
+        <is>
+          <t>0.5645571116590906</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_nupl.xlsx
+++ b/data_cripto/btc_nupl.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/data_cripto/btc_nupl.xlsx
+++ b/data_cripto/btc_nupl.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/data_cripto/btc_nupl.xlsx
+++ b/data_cripto/btc_nupl.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4606"/>
+  <dimension ref="A1:C4607"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78735,6 +78735,23 @@
         </is>
       </c>
     </row>
+    <row r="4607">
+      <c r="A4607" t="inlineStr">
+        <is>
+          <t>2025-08-12</t>
+        </is>
+      </c>
+      <c r="B4607" t="inlineStr">
+        <is>
+          <t>1754956800</t>
+        </is>
+      </c>
+      <c r="C4607" t="inlineStr">
+        <is>
+          <t>0.5640376131279188</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_nupl.xlsx
+++ b/data_cripto/btc_nupl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4607"/>
+  <dimension ref="A1:C4608"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78752,6 +78752,23 @@
         </is>
       </c>
     </row>
+    <row r="4608">
+      <c r="A4608" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B4608" t="inlineStr">
+        <is>
+          <t>1755043200</t>
+        </is>
+      </c>
+      <c r="C4608" t="inlineStr">
+        <is>
+          <t>0.5678391977527361</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_nupl.xlsx
+++ b/data_cripto/btc_nupl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4608"/>
+  <dimension ref="A1:C4609"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78769,6 +78769,23 @@
         </is>
       </c>
     </row>
+    <row r="4609">
+      <c r="A4609" t="inlineStr">
+        <is>
+          <t>2025-08-14</t>
+        </is>
+      </c>
+      <c r="B4609" t="inlineStr">
+        <is>
+          <t>1755129600</t>
+        </is>
+      </c>
+      <c r="C4609" t="inlineStr">
+        <is>
+          <t>0.5763172612396498</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_nupl.xlsx
+++ b/data_cripto/btc_nupl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4609"/>
+  <dimension ref="A1:C4610"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78786,6 +78786,23 @@
         </is>
       </c>
     </row>
+    <row r="4610">
+      <c r="A4610" t="inlineStr">
+        <is>
+          <t>2025-08-15</t>
+        </is>
+      </c>
+      <c r="B4610" t="inlineStr">
+        <is>
+          <t>1755216000</t>
+        </is>
+      </c>
+      <c r="C4610" t="inlineStr">
+        <is>
+          <t>0.5588147847326325</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_nupl.xlsx
+++ b/data_cripto/btc_nupl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4610"/>
+  <dimension ref="A1:C4611"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78803,6 +78803,23 @@
         </is>
       </c>
     </row>
+    <row r="4611">
+      <c r="A4611" t="inlineStr">
+        <is>
+          <t>2025-08-16</t>
+        </is>
+      </c>
+      <c r="B4611" t="inlineStr">
+        <is>
+          <t>1755302400</t>
+        </is>
+      </c>
+      <c r="C4611" t="inlineStr">
+        <is>
+          <t>0.5556711744854174</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_nupl.xlsx
+++ b/data_cripto/btc_nupl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4611"/>
+  <dimension ref="A1:C4612"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78820,6 +78820,23 @@
         </is>
       </c>
     </row>
+    <row r="4612">
+      <c r="A4612" t="inlineStr">
+        <is>
+          <t>2025-08-17</t>
+        </is>
+      </c>
+      <c r="B4612" t="inlineStr">
+        <is>
+          <t>1755388800</t>
+        </is>
+      </c>
+      <c r="C4612" t="inlineStr">
+        <is>
+          <t>0.5559922485356789</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_nupl.xlsx
+++ b/data_cripto/btc_nupl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4612"/>
+  <dimension ref="A1:C4613"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78837,6 +78837,23 @@
         </is>
       </c>
     </row>
+    <row r="4613">
+      <c r="A4613" t="inlineStr">
+        <is>
+          <t>2025-08-18</t>
+        </is>
+      </c>
+      <c r="B4613" t="inlineStr">
+        <is>
+          <t>1755475200</t>
+        </is>
+      </c>
+      <c r="C4613" t="inlineStr">
+        <is>
+          <t>0.557122084936954</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_nupl.xlsx
+++ b/data_cripto/btc_nupl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4613"/>
+  <dimension ref="A1:C4614"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78854,6 +78854,23 @@
         </is>
       </c>
     </row>
+    <row r="4614">
+      <c r="A4614" t="inlineStr">
+        <is>
+          <t>2025-08-19</t>
+        </is>
+      </c>
+      <c r="B4614" t="inlineStr">
+        <is>
+          <t>1755561600</t>
+        </is>
+      </c>
+      <c r="C4614" t="inlineStr">
+        <is>
+          <t>0.5525493666078506</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_nupl.xlsx
+++ b/data_cripto/btc_nupl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4634"/>
+  <dimension ref="A1:B4635"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46775,6 +46775,16 @@
         <v>0.527</v>
       </c>
     </row>
+    <row r="4635">
+      <c r="A4635" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+      <c r="B4635" t="n">
+        <v>0.524</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_nupl.xlsx
+++ b/data_cripto/btc_nupl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4635"/>
+  <dimension ref="A1:B4636"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46785,6 +46785,16 @@
         <v>0.524</v>
       </c>
     </row>
+    <row r="4636">
+      <c r="A4636" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="B4636" t="n">
+        <v>0.534</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_nupl.xlsx
+++ b/data_cripto/btc_nupl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4636"/>
+  <dimension ref="A1:B4637"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46795,6 +46795,16 @@
         <v>0.534</v>
       </c>
     </row>
+    <row r="4637">
+      <c r="A4637" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="B4637" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_nupl.xlsx
+++ b/data_cripto/btc_nupl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4637"/>
+  <dimension ref="A1:B4638"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46805,6 +46805,16 @@
         <v>0.54</v>
       </c>
     </row>
+    <row r="4638">
+      <c r="A4638" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+      <c r="B4638" t="n">
+        <v>0.542</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_nupl.xlsx
+++ b/data_cripto/btc_nupl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4638"/>
+  <dimension ref="A1:B4639"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46815,6 +46815,16 @@
         <v>0.542</v>
       </c>
     </row>
+    <row r="4639">
+      <c r="A4639" t="inlineStr">
+        <is>
+          <t>2025-09-13</t>
+        </is>
+      </c>
+      <c r="B4639" t="n">
+        <v>0.541</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_nupl.xlsx
+++ b/data_cripto/btc_nupl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4639"/>
+  <dimension ref="A1:B4640"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46825,6 +46825,16 @@
         <v>0.541</v>
       </c>
     </row>
+    <row r="4640">
+      <c r="A4640" t="inlineStr">
+        <is>
+          <t>2025-09-14</t>
+        </is>
+      </c>
+      <c r="B4640" t="n">
+        <v>0.541</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_nupl.xlsx
+++ b/data_cripto/btc_nupl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4640"/>
+  <dimension ref="A1:B4641"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46835,6 +46835,16 @@
         <v>0.541</v>
       </c>
     </row>
+    <row r="4641">
+      <c r="A4641" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="B4641" t="n">
+        <v>0.538</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_nupl.xlsx
+++ b/data_cripto/btc_nupl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4641"/>
+  <dimension ref="A1:B4642"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46845,6 +46845,16 @@
         <v>0.538</v>
       </c>
     </row>
+    <row r="4642">
+      <c r="A4642" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="B4642" t="n">
+        <v>0.543</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_nupl.xlsx
+++ b/data_cripto/btc_nupl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4642"/>
+  <dimension ref="A1:B4643"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46855,6 +46855,16 @@
         <v>0.543</v>
       </c>
     </row>
+    <row r="4643">
+      <c r="A4643" t="inlineStr">
+        <is>
+          <t>2025-09-17</t>
+        </is>
+      </c>
+      <c r="B4643" t="n">
+        <v>0.543</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_nupl.xlsx
+++ b/data_cripto/btc_nupl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4643"/>
+  <dimension ref="A1:B4644"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46865,6 +46865,16 @@
         <v>0.543</v>
       </c>
     </row>
+    <row r="4644">
+      <c r="A4644" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="B4644" t="n">
+        <v>0.539</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_nupl.xlsx
+++ b/data_cripto/btc_nupl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4644"/>
+  <dimension ref="A1:B4645"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46875,6 +46875,16 @@
         <v>0.539</v>
       </c>
     </row>
+    <row r="4645">
+      <c r="A4645" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="B4645" t="n">
+        <v>0.537</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_nupl.xlsx
+++ b/data_cripto/btc_nupl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4645"/>
+  <dimension ref="A1:B4646"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46885,6 +46885,16 @@
         <v>0.537</v>
       </c>
     </row>
+    <row r="4646">
+      <c r="A4646" t="inlineStr">
+        <is>
+          <t>2025-09-20</t>
+        </is>
+      </c>
+      <c r="B4646" t="n">
+        <v>0.537</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_nupl.xlsx
+++ b/data_cripto/btc_nupl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4646"/>
+  <dimension ref="A1:B4647"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46895,6 +46895,16 @@
         <v>0.537</v>
       </c>
     </row>
+    <row r="4647">
+      <c r="A4647" t="inlineStr">
+        <is>
+          <t>2025-09-21</t>
+        </is>
+      </c>
+      <c r="B4647" t="n">
+        <v>0.535</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_nupl.xlsx
+++ b/data_cripto/btc_nupl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4647"/>
+  <dimension ref="A1:B4648"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46905,6 +46905,16 @@
         <v>0.535</v>
       </c>
     </row>
+    <row r="4648">
+      <c r="A4648" t="inlineStr">
+        <is>
+          <t>2025-09-22</t>
+        </is>
+      </c>
+      <c r="B4648" t="n">
+        <v>0.525</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_nupl.xlsx
+++ b/data_cripto/btc_nupl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4648"/>
+  <dimension ref="A1:B4649"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46915,6 +46915,16 @@
         <v>0.525</v>
       </c>
     </row>
+    <row r="4649">
+      <c r="A4649" t="inlineStr">
+        <is>
+          <t>2025-09-23</t>
+        </is>
+      </c>
+      <c r="B4649" t="n">
+        <v>0.521</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_nupl.xlsx
+++ b/data_cripto/btc_nupl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4649"/>
+  <dimension ref="A1:B4650"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46925,6 +46925,16 @@
         <v>0.521</v>
       </c>
     </row>
+    <row r="4650">
+      <c r="A4650" t="inlineStr">
+        <is>
+          <t>2025-09-24</t>
+        </is>
+      </c>
+      <c r="B4650" t="n">
+        <v>0.526</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_nupl.xlsx
+++ b/data_cripto/btc_nupl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4650"/>
+  <dimension ref="A1:B4652"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46935,6 +46935,26 @@
         <v>0.526</v>
       </c>
     </row>
+    <row r="4651">
+      <c r="A4651" t="inlineStr">
+        <is>
+          <t>2025-09-25</t>
+        </is>
+      </c>
+      <c r="B4651" t="n">
+        <v>0.508</v>
+      </c>
+    </row>
+    <row r="4652">
+      <c r="A4652" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="B4652" t="n">
+        <v>0.51</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_nupl.xlsx
+++ b/data_cripto/btc_nupl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4652"/>
+  <dimension ref="A1:B4653"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46955,6 +46955,16 @@
         <v>0.51</v>
       </c>
     </row>
+    <row r="4653">
+      <c r="A4653" t="inlineStr">
+        <is>
+          <t>2025-09-27</t>
+        </is>
+      </c>
+      <c r="B4653" t="n">
+        <v>0.51</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_nupl.xlsx
+++ b/data_cripto/btc_nupl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4653"/>
+  <dimension ref="A1:B4654"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46965,6 +46965,16 @@
         <v>0.51</v>
       </c>
     </row>
+    <row r="4654">
+      <c r="A4654" t="inlineStr">
+        <is>
+          <t>2025-09-28</t>
+        </is>
+      </c>
+      <c r="B4654" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_nupl.xlsx
+++ b/data_cripto/btc_nupl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4654"/>
+  <dimension ref="A1:B4655"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46975,6 +46975,16 @@
         <v>0.52</v>
       </c>
     </row>
+    <row r="4655">
+      <c r="A4655" t="inlineStr">
+        <is>
+          <t>2025-09-29</t>
+        </is>
+      </c>
+      <c r="B4655" t="n">
+        <v>0.529</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_nupl.xlsx
+++ b/data_cripto/btc_nupl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4655"/>
+  <dimension ref="A1:B4656"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46985,6 +46985,16 @@
         <v>0.529</v>
       </c>
     </row>
+    <row r="4656">
+      <c r="A4656" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B4656" t="n">
+        <v>0.527</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_nupl.xlsx
+++ b/data_cripto/btc_nupl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4656"/>
+  <dimension ref="A1:B4657"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46995,6 +46995,16 @@
         <v>0.527</v>
       </c>
     </row>
+    <row r="4657">
+      <c r="A4657" t="inlineStr">
+        <is>
+          <t>2025-10-01</t>
+        </is>
+      </c>
+      <c r="B4657" t="n">
+        <v>0.543</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_nupl.xlsx
+++ b/data_cripto/btc_nupl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4657"/>
+  <dimension ref="A1:B4658"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47005,6 +47005,16 @@
         <v>0.543</v>
       </c>
     </row>
+    <row r="4658">
+      <c r="A4658" t="inlineStr">
+        <is>
+          <t>2025-10-02</t>
+        </is>
+      </c>
+      <c r="B4658" t="n">
+        <v>0.538</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_nupl.xlsx
+++ b/data_cripto/btc_nupl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4658"/>
+  <dimension ref="A1:B4659"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47015,6 +47015,14 @@
         <v>0.538</v>
       </c>
     </row>
+    <row r="4659">
+      <c r="A4659" t="inlineStr">
+        <is>
+          <t>2025-10-03</t>
+        </is>
+      </c>
+      <c r="B4659" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_nupl.xlsx
+++ b/data_cripto/btc_nupl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4659"/>
+  <dimension ref="A1:B4660"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47021,7 +47021,19 @@
           <t>2025-10-03</t>
         </is>
       </c>
-      <c r="B4659" t="inlineStr"/>
+      <c r="B4659" t="n">
+        <v>0.556</v>
+      </c>
+    </row>
+    <row r="4660">
+      <c r="A4660" t="inlineStr">
+        <is>
+          <t>2025-10-04</t>
+        </is>
+      </c>
+      <c r="B4660" t="n">
+        <v>0.556</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data_cripto/btc_nupl.xlsx
+++ b/data_cripto/btc_nupl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4660"/>
+  <dimension ref="A1:B4661"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47035,6 +47035,16 @@
         <v>0.556</v>
       </c>
     </row>
+    <row r="4661">
+      <c r="A4661" t="inlineStr">
+        <is>
+          <t>2025-10-05</t>
+        </is>
+      </c>
+      <c r="B4661" t="n">
+        <v>0.5590000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_nupl.xlsx
+++ b/data_cripto/btc_nupl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4661"/>
+  <dimension ref="A1:B4662"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47045,6 +47045,16 @@
         <v>0.5590000000000001</v>
       </c>
     </row>
+    <row r="4662">
+      <c r="A4662" t="inlineStr">
+        <is>
+          <t>2025-10-06</t>
+        </is>
+      </c>
+      <c r="B4662" t="n">
+        <v>0.5629999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_nupl.xlsx
+++ b/data_cripto/btc_nupl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4662"/>
+  <dimension ref="A1:B4663"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47055,6 +47055,16 @@
         <v>0.5629999999999999</v>
       </c>
     </row>
+    <row r="4663">
+      <c r="A4663" t="inlineStr">
+        <is>
+          <t>2025-10-07</t>
+        </is>
+      </c>
+      <c r="B4663" t="n">
+        <v>0.5620000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_nupl.xlsx
+++ b/data_cripto/btc_nupl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4663"/>
+  <dimension ref="A1:B4664"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47065,6 +47065,16 @@
         <v>0.5620000000000001</v>
       </c>
     </row>
+    <row r="4664">
+      <c r="A4664" t="inlineStr">
+        <is>
+          <t>2025-10-08</t>
+        </is>
+      </c>
+      <c r="B4664" t="n">
+        <v>0.556</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_nupl.xlsx
+++ b/data_cripto/btc_nupl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4664"/>
+  <dimension ref="A1:B4665"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47075,6 +47075,16 @@
         <v>0.556</v>
       </c>
     </row>
+    <row r="4665">
+      <c r="A4665" t="inlineStr">
+        <is>
+          <t>2025-10-09</t>
+        </is>
+      </c>
+      <c r="B4665" t="n">
+        <v>0.548</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_nupl.xlsx
+++ b/data_cripto/btc_nupl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4665"/>
+  <dimension ref="A1:B4666"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47085,6 +47085,16 @@
         <v>0.548</v>
       </c>
     </row>
+    <row r="4666">
+      <c r="A4666" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+      <c r="B4666" t="n">
+        <v>0.517</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_nupl.xlsx
+++ b/data_cripto/btc_nupl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4666"/>
+  <dimension ref="A1:B4667"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47095,6 +47095,16 @@
         <v>0.517</v>
       </c>
     </row>
+    <row r="4667">
+      <c r="A4667" t="inlineStr">
+        <is>
+          <t>2025-10-11</t>
+        </is>
+      </c>
+      <c r="B4667" t="n">
+        <v>0.505</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_nupl.xlsx
+++ b/data_cripto/btc_nupl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4667"/>
+  <dimension ref="A1:B4668"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47105,6 +47105,16 @@
         <v>0.505</v>
       </c>
     </row>
+    <row r="4668">
+      <c r="A4668" t="inlineStr">
+        <is>
+          <t>2025-10-12</t>
+        </is>
+      </c>
+      <c r="B4668" t="n">
+        <v>0.523</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_nupl.xlsx
+++ b/data_cripto/btc_nupl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4668"/>
+  <dimension ref="A1:B4669"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47115,6 +47115,16 @@
         <v>0.523</v>
       </c>
     </row>
+    <row r="4669">
+      <c r="A4669" t="inlineStr">
+        <is>
+          <t>2025-10-13</t>
+        </is>
+      </c>
+      <c r="B4669" t="n">
+        <v>0.524</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_nupl.xlsx
+++ b/data_cripto/btc_nupl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4669"/>
+  <dimension ref="A1:B4670"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47125,6 +47125,16 @@
         <v>0.524</v>
       </c>
     </row>
+    <row r="4670">
+      <c r="A4670" t="inlineStr">
+        <is>
+          <t>2025-10-14</t>
+        </is>
+      </c>
+      <c r="B4670" t="n">
+        <v>0.514</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_nupl.xlsx
+++ b/data_cripto/btc_nupl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4670"/>
+  <dimension ref="A1:B4671"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47135,6 +47135,16 @@
         <v>0.514</v>
       </c>
     </row>
+    <row r="4671">
+      <c r="A4671" t="inlineStr">
+        <is>
+          <t>2025-10-15</t>
+        </is>
+      </c>
+      <c r="B4671" t="n">
+        <v>0.512</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_nupl.xlsx
+++ b/data_cripto/btc_nupl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4671"/>
+  <dimension ref="A1:B4673"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47145,6 +47145,26 @@
         <v>0.512</v>
       </c>
     </row>
+    <row r="4672">
+      <c r="A4672" t="inlineStr">
+        <is>
+          <t>2025-10-16</t>
+        </is>
+      </c>
+      <c r="B4672" t="n">
+        <v>0.489</v>
+      </c>
+    </row>
+    <row r="4673">
+      <c r="A4673" t="inlineStr">
+        <is>
+          <t>2025-10-17</t>
+        </is>
+      </c>
+      <c r="B4673" t="n">
+        <v>0.49</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_nupl.xlsx
+++ b/data_cripto/btc_nupl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4673"/>
+  <dimension ref="A1:B4674"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47165,6 +47165,16 @@
         <v>0.49</v>
       </c>
     </row>
+    <row r="4674">
+      <c r="A4674" t="inlineStr">
+        <is>
+          <t>2025-10-18</t>
+        </is>
+      </c>
+      <c r="B4674" t="n">
+        <v>0.484</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_nupl.xlsx
+++ b/data_cripto/btc_nupl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4674"/>
+  <dimension ref="A1:B4675"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47175,6 +47175,16 @@
         <v>0.484</v>
       </c>
     </row>
+    <row r="4675">
+      <c r="A4675" t="inlineStr">
+        <is>
+          <t>2025-10-19</t>
+        </is>
+      </c>
+      <c r="B4675" t="n">
+        <v>0.491</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_nupl.xlsx
+++ b/data_cripto/btc_nupl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4675"/>
+  <dimension ref="A1:B4676"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47185,6 +47185,16 @@
         <v>0.491</v>
       </c>
     </row>
+    <row r="4676">
+      <c r="A4676" t="inlineStr">
+        <is>
+          <t>2025-10-20</t>
+        </is>
+      </c>
+      <c r="B4676" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_nupl.xlsx
+++ b/data_cripto/btc_nupl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4676"/>
+  <dimension ref="A1:B4677"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47195,6 +47195,16 @@
         <v>0.5</v>
       </c>
     </row>
+    <row r="4677">
+      <c r="A4677" t="inlineStr">
+        <is>
+          <t>2025-10-21</t>
+        </is>
+      </c>
+      <c r="B4677" t="n">
+        <v>0.491</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_nupl.xlsx
+++ b/data_cripto/btc_nupl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4677"/>
+  <dimension ref="A1:B4678"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47205,6 +47205,16 @@
         <v>0.491</v>
       </c>
     </row>
+    <row r="4678">
+      <c r="A4678" t="inlineStr">
+        <is>
+          <t>2025-10-22</t>
+        </is>
+      </c>
+      <c r="B4678" t="n">
+        <v>0.485</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_nupl.xlsx
+++ b/data_cripto/btc_nupl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4678"/>
+  <dimension ref="A1:B4680"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47215,6 +47215,26 @@
         <v>0.485</v>
       </c>
     </row>
+    <row r="4679">
+      <c r="A4679" t="inlineStr">
+        <is>
+          <t>2025-10-23</t>
+        </is>
+      </c>
+      <c r="B4679" t="n">
+        <v>0.496</v>
+      </c>
+    </row>
+    <row r="4680">
+      <c r="A4680" t="inlineStr">
+        <is>
+          <t>2025-10-24</t>
+        </is>
+      </c>
+      <c r="B4680" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_nupl.xlsx
+++ b/data_cripto/btc_nupl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4680"/>
+  <dimension ref="A1:B4682"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47235,6 +47235,26 @@
         <v>0.5</v>
       </c>
     </row>
+    <row r="4681">
+      <c r="A4681" t="inlineStr">
+        <is>
+          <t>2025-10-25</t>
+        </is>
+      </c>
+      <c r="B4681" t="n">
+        <v>0.503</v>
+      </c>
+    </row>
+    <row r="4682">
+      <c r="A4682" t="inlineStr">
+        <is>
+          <t>2025-10-26</t>
+        </is>
+      </c>
+      <c r="B4682" t="n">
+        <v>0.515</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_nupl.xlsx
+++ b/data_cripto/btc_nupl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4682"/>
+  <dimension ref="A1:B4683"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47255,6 +47255,16 @@
         <v>0.515</v>
       </c>
     </row>
+    <row r="4683">
+      <c r="A4683" t="inlineStr">
+        <is>
+          <t>2025-10-27</t>
+        </is>
+      </c>
+      <c r="B4683" t="n">
+        <v>0.512</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_nupl.xlsx
+++ b/data_cripto/btc_nupl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4683"/>
+  <dimension ref="A1:B4684"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47265,6 +47265,16 @@
         <v>0.512</v>
       </c>
     </row>
+    <row r="4684">
+      <c r="A4684" t="inlineStr">
+        <is>
+          <t>2025-10-28</t>
+        </is>
+      </c>
+      <c r="B4684" t="n">
+        <v>0.511</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_nupl.xlsx
+++ b/data_cripto/btc_nupl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4684"/>
+  <dimension ref="A1:B4685"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47275,6 +47275,16 @@
         <v>0.511</v>
       </c>
     </row>
+    <row r="4685">
+      <c r="A4685" t="inlineStr">
+        <is>
+          <t>2025-10-29</t>
+        </is>
+      </c>
+      <c r="B4685" t="n">
+        <v>0.506</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_nupl.xlsx
+++ b/data_cripto/btc_nupl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4685"/>
+  <dimension ref="A1:B4687"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47285,6 +47285,26 @@
         <v>0.506</v>
       </c>
     </row>
+    <row r="4686">
+      <c r="A4686" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="B4686" t="n">
+        <v>0.483</v>
+      </c>
+    </row>
+    <row r="4687">
+      <c r="A4687" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="B4687" t="n">
+        <v>0.49</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_nupl.xlsx
+++ b/data_cripto/btc_nupl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4687"/>
+  <dimension ref="A1:B4689"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47305,6 +47305,26 @@
         <v>0.49</v>
       </c>
     </row>
+    <row r="4688">
+      <c r="A4688" t="inlineStr">
+        <is>
+          <t>2025-11-01</t>
+        </is>
+      </c>
+      <c r="B4688" t="n">
+        <v>0.491</v>
+      </c>
+    </row>
+    <row r="4689">
+      <c r="A4689" t="inlineStr">
+        <is>
+          <t>2025-11-02</t>
+        </is>
+      </c>
+      <c r="B4689" t="n">
+        <v>0.493</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_nupl.xlsx
+++ b/data_cripto/btc_nupl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4689"/>
+  <dimension ref="A1:B4690"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47325,6 +47325,16 @@
         <v>0.493</v>
       </c>
     </row>
+    <row r="4690">
+      <c r="A4690" t="inlineStr">
+        <is>
+          <t>2025-11-03</t>
+        </is>
+      </c>
+      <c r="B4690" t="n">
+        <v>0.474</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_nupl.xlsx
+++ b/data_cripto/btc_nupl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4690"/>
+  <dimension ref="A1:B4691"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47335,6 +47335,16 @@
         <v>0.474</v>
       </c>
     </row>
+    <row r="4691">
+      <c r="A4691" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="B4691" t="n">
+        <v>0.448</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_nupl.xlsx
+++ b/data_cripto/btc_nupl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4691"/>
+  <dimension ref="A1:B4692"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47345,6 +47345,16 @@
         <v>0.448</v>
       </c>
     </row>
+    <row r="4692">
+      <c r="A4692" t="inlineStr">
+        <is>
+          <t>2025-11-05</t>
+        </is>
+      </c>
+      <c r="B4692" t="n">
+        <v>0.461</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_nupl.xlsx
+++ b/data_cripto/btc_nupl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4692"/>
+  <dimension ref="A1:B4693"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47355,6 +47355,16 @@
         <v>0.461</v>
       </c>
     </row>
+    <row r="4693">
+      <c r="A4693" t="inlineStr">
+        <is>
+          <t>2025-11-06</t>
+        </is>
+      </c>
+      <c r="B4693" t="n">
+        <v>0.447</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_nupl.xlsx
+++ b/data_cripto/btc_nupl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4693"/>
+  <dimension ref="A1:B4702"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47365,6 +47365,96 @@
         <v>0.447</v>
       </c>
     </row>
+    <row r="4694">
+      <c r="A4694" t="inlineStr">
+        <is>
+          <t>2025-11-07</t>
+        </is>
+      </c>
+      <c r="B4694" t="n">
+        <v>0.445</v>
+      </c>
+    </row>
+    <row r="4695">
+      <c r="A4695" t="inlineStr">
+        <is>
+          <t>2025-11-08</t>
+        </is>
+      </c>
+      <c r="B4695" t="n">
+        <v>0.457</v>
+      </c>
+    </row>
+    <row r="4696">
+      <c r="A4696" t="inlineStr">
+        <is>
+          <t>2025-11-09</t>
+        </is>
+      </c>
+      <c r="B4696" t="n">
+        <v>0.464</v>
+      </c>
+    </row>
+    <row r="4697">
+      <c r="A4697" t="inlineStr">
+        <is>
+          <t>2025-11-10</t>
+        </is>
+      </c>
+      <c r="B4697" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="4698">
+      <c r="A4698" t="inlineStr">
+        <is>
+          <t>2025-11-11</t>
+        </is>
+      </c>
+      <c r="B4698" t="n">
+        <v>0.454</v>
+      </c>
+    </row>
+    <row r="4699">
+      <c r="A4699" t="inlineStr">
+        <is>
+          <t>2025-11-12</t>
+        </is>
+      </c>
+      <c r="B4699" t="n">
+        <v>0.447</v>
+      </c>
+    </row>
+    <row r="4700">
+      <c r="A4700" t="inlineStr">
+        <is>
+          <t>2025-11-13</t>
+        </is>
+      </c>
+      <c r="B4700" t="n">
+        <v>0.447</v>
+      </c>
+    </row>
+    <row r="4701">
+      <c r="A4701" t="inlineStr">
+        <is>
+          <t>2025-11-14</t>
+        </is>
+      </c>
+      <c r="B4701" t="n">
+        <v>0.406</v>
+      </c>
+    </row>
+    <row r="4702">
+      <c r="A4702" t="inlineStr">
+        <is>
+          <t>2025-11-15</t>
+        </is>
+      </c>
+      <c r="B4702" t="n">
+        <v>0.412</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_nupl.xlsx
+++ b/data_cripto/btc_nupl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4702"/>
+  <dimension ref="A1:B4703"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47455,6 +47455,16 @@
         <v>0.412</v>
       </c>
     </row>
+    <row r="4703">
+      <c r="A4703" t="inlineStr">
+        <is>
+          <t>2025-11-16</t>
+        </is>
+      </c>
+      <c r="B4703" t="n">
+        <v>0.404</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_nupl.xlsx
+++ b/data_cripto/btc_nupl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4703"/>
+  <dimension ref="A1:B4705"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47465,6 +47465,26 @@
         <v>0.404</v>
       </c>
     </row>
+    <row r="4704">
+      <c r="A4704" t="inlineStr">
+        <is>
+          <t>2025-11-17</t>
+        </is>
+      </c>
+      <c r="B4704" t="n">
+        <v>0.389</v>
+      </c>
+    </row>
+    <row r="4705">
+      <c r="A4705" t="inlineStr">
+        <is>
+          <t>2025-11-18</t>
+        </is>
+      </c>
+      <c r="B4705" t="n">
+        <v>0.395</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_nupl.xlsx
+++ b/data_cripto/btc_nupl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4705"/>
+  <dimension ref="A1:B4711"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47485,6 +47485,66 @@
         <v>0.395</v>
       </c>
     </row>
+    <row r="4706">
+      <c r="A4706" t="inlineStr">
+        <is>
+          <t>2025-11-19</t>
+        </is>
+      </c>
+      <c r="B4706" t="n">
+        <v>0.386</v>
+      </c>
+    </row>
+    <row r="4707">
+      <c r="A4707" t="inlineStr">
+        <is>
+          <t>2025-11-20</t>
+        </is>
+      </c>
+      <c r="B4707" t="n">
+        <v>0.389</v>
+      </c>
+    </row>
+    <row r="4708">
+      <c r="A4708" t="inlineStr">
+        <is>
+          <t>2025-11-21</t>
+        </is>
+      </c>
+      <c r="B4708" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="4709">
+      <c r="A4709" t="inlineStr">
+        <is>
+          <t>2025-11-22</t>
+        </is>
+      </c>
+      <c r="B4709" t="n">
+        <v>0.343</v>
+      </c>
+    </row>
+    <row r="4710">
+      <c r="A4710" t="inlineStr">
+        <is>
+          <t>2025-11-23</t>
+        </is>
+      </c>
+      <c r="B4710" t="n">
+        <v>0.351</v>
+      </c>
+    </row>
+    <row r="4711">
+      <c r="A4711" t="inlineStr">
+        <is>
+          <t>2025-11-24</t>
+        </is>
+      </c>
+      <c r="B4711" t="n">
+        <v>0.362</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_nupl.xlsx
+++ b/data_cripto/btc_nupl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4711"/>
+  <dimension ref="A1:B4715"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47545,6 +47545,46 @@
         <v>0.362</v>
       </c>
     </row>
+    <row r="4712">
+      <c r="A4712" t="inlineStr">
+        <is>
+          <t>2025-11-25</t>
+        </is>
+      </c>
+      <c r="B4712" t="n">
+        <v>0.355</v>
+      </c>
+    </row>
+    <row r="4713">
+      <c r="A4713" t="inlineStr">
+        <is>
+          <t>2025-11-26</t>
+        </is>
+      </c>
+      <c r="B4713" t="n">
+        <v>0.376</v>
+      </c>
+    </row>
+    <row r="4714">
+      <c r="A4714" t="inlineStr">
+        <is>
+          <t>2025-11-27</t>
+        </is>
+      </c>
+      <c r="B4714" t="n">
+        <v>0.382</v>
+      </c>
+    </row>
+    <row r="4715">
+      <c r="A4715" t="inlineStr">
+        <is>
+          <t>2025-11-28</t>
+        </is>
+      </c>
+      <c r="B4715" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_nupl.xlsx
+++ b/data_cripto/btc_nupl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4715"/>
+  <dimension ref="A1:B4716"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47585,6 +47585,16 @@
         <v>0.39</v>
       </c>
     </row>
+    <row r="4716">
+      <c r="A4716" t="inlineStr">
+        <is>
+          <t>2025-11-29</t>
+        </is>
+      </c>
+      <c r="B4716" t="n">
+        <v>0.379</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_nupl.xlsx
+++ b/data_cripto/btc_nupl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4716"/>
+  <dimension ref="A1:B4717"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47595,6 +47595,16 @@
         <v>0.379</v>
       </c>
     </row>
+    <row r="4717">
+      <c r="A4717" t="inlineStr">
+        <is>
+          <t>2025-11-30</t>
+        </is>
+      </c>
+      <c r="B4717" t="n">
+        <v>0.377</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_nupl.xlsx
+++ b/data_cripto/btc_nupl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4717"/>
+  <dimension ref="A1:B4718"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47605,6 +47605,16 @@
         <v>0.377</v>
       </c>
     </row>
+    <row r="4718">
+      <c r="A4718" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
+        </is>
+      </c>
+      <c r="B4718" t="n">
+        <v>0.348</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_nupl.xlsx
+++ b/data_cripto/btc_nupl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4718"/>
+  <dimension ref="A1:B4719"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47615,6 +47615,16 @@
         <v>0.348</v>
       </c>
     </row>
+    <row r="4719">
+      <c r="A4719" t="inlineStr">
+        <is>
+          <t>2025-12-02</t>
+        </is>
+      </c>
+      <c r="B4719" t="n">
+        <v>0.384</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_nupl.xlsx
+++ b/data_cripto/btc_nupl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4719"/>
+  <dimension ref="A1:B4720"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47625,6 +47625,16 @@
         <v>0.384</v>
       </c>
     </row>
+    <row r="4720">
+      <c r="A4720" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="B4720" t="n">
+        <v>0.398</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_nupl.xlsx
+++ b/data_cripto/btc_nupl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4720"/>
+  <dimension ref="A1:B4721"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47635,6 +47635,16 @@
         <v>0.398</v>
       </c>
     </row>
+    <row r="4721">
+      <c r="A4721" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="B4721" t="n">
+        <v>0.388</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_nupl.xlsx
+++ b/data_cripto/btc_nupl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4721"/>
+  <dimension ref="A1:B4725"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47645,6 +47645,46 @@
         <v>0.388</v>
       </c>
     </row>
+    <row r="4722">
+      <c r="A4722" t="inlineStr">
+        <is>
+          <t>2025-12-05</t>
+        </is>
+      </c>
+      <c r="B4722" t="n">
+        <v>0.397</v>
+      </c>
+    </row>
+    <row r="4723">
+      <c r="A4723" t="inlineStr">
+        <is>
+          <t>2025-12-06</t>
+        </is>
+      </c>
+      <c r="B4723" t="n">
+        <v>0.376</v>
+      </c>
+    </row>
+    <row r="4724">
+      <c r="A4724" t="inlineStr">
+        <is>
+          <t>2025-12-07</t>
+        </is>
+      </c>
+      <c r="B4724" t="n">
+        <v>0.374</v>
+      </c>
+    </row>
+    <row r="4725">
+      <c r="A4725" t="inlineStr">
+        <is>
+          <t>2025-12-08</t>
+        </is>
+      </c>
+      <c r="B4725" t="n">
+        <v>0.379</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_nupl.xlsx
+++ b/data_cripto/btc_nupl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4725"/>
+  <dimension ref="A1:B4726"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47685,6 +47685,16 @@
         <v>0.379</v>
       </c>
     </row>
+    <row r="4726">
+      <c r="A4726" t="inlineStr">
+        <is>
+          <t>2025-12-09</t>
+        </is>
+      </c>
+      <c r="B4726" t="n">
+        <v>0.388</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_nupl.xlsx
+++ b/data_cripto/btc_nupl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4726"/>
+  <dimension ref="A1:B4728"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47695,6 +47695,26 @@
         <v>0.388</v>
       </c>
     </row>
+    <row r="4727">
+      <c r="A4727" t="inlineStr">
+        <is>
+          <t>2025-12-10</t>
+        </is>
+      </c>
+      <c r="B4727" t="n">
+        <v>0.399</v>
+      </c>
+    </row>
+    <row r="4728">
+      <c r="A4728" t="inlineStr">
+        <is>
+          <t>2025-12-11</t>
+        </is>
+      </c>
+      <c r="B4728" t="n">
+        <v>0.398</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_nupl.xlsx
+++ b/data_cripto/btc_nupl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4728"/>
+  <dimension ref="A1:B4731"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47715,6 +47715,36 @@
         <v>0.398</v>
       </c>
     </row>
+    <row r="4729">
+      <c r="A4729" t="inlineStr">
+        <is>
+          <t>2025-12-12</t>
+        </is>
+      </c>
+      <c r="B4729" t="n">
+        <v>0.376</v>
+      </c>
+    </row>
+    <row r="4730">
+      <c r="A4730" t="inlineStr">
+        <is>
+          <t>2025-12-13</t>
+        </is>
+      </c>
+      <c r="B4730" t="n">
+        <v>0.383</v>
+      </c>
+    </row>
+    <row r="4731">
+      <c r="A4731" t="inlineStr">
+        <is>
+          <t>2025-12-14</t>
+        </is>
+      </c>
+      <c r="B4731" t="n">
+        <v>0.382</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_nupl.xlsx
+++ b/data_cripto/btc_nupl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4731"/>
+  <dimension ref="A1:B4733"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47745,6 +47745,26 @@
         <v>0.382</v>
       </c>
     </row>
+    <row r="4732">
+      <c r="A4732" t="inlineStr">
+        <is>
+          <t>2025-12-15</t>
+        </is>
+      </c>
+      <c r="B4732" t="n">
+        <v>0.372</v>
+      </c>
+    </row>
+    <row r="4733">
+      <c r="A4733" t="inlineStr">
+        <is>
+          <t>2025-12-16</t>
+        </is>
+      </c>
+      <c r="B4733" t="n">
+        <v>0.358</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_nupl.xlsx
+++ b/data_cripto/btc_nupl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4733"/>
+  <dimension ref="A1:B4734"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47765,6 +47765,16 @@
         <v>0.358</v>
       </c>
     </row>
+    <row r="4734">
+      <c r="A4734" t="inlineStr">
+        <is>
+          <t>2025-12-17</t>
+        </is>
+      </c>
+      <c r="B4734" t="n">
+        <v>0.346</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_nupl.xlsx
+++ b/data_cripto/btc_nupl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4734"/>
+  <dimension ref="A1:B4735"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47775,6 +47775,16 @@
         <v>0.346</v>
       </c>
     </row>
+    <row r="4735">
+      <c r="A4735" t="inlineStr">
+        <is>
+          <t>2025-12-18</t>
+        </is>
+      </c>
+      <c r="B4735" t="n">
+        <v>0.339</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_nupl.xlsx
+++ b/data_cripto/btc_nupl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4735"/>
+  <dimension ref="A1:B4738"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47785,6 +47785,36 @@
         <v>0.339</v>
       </c>
     </row>
+    <row r="4736">
+      <c r="A4736" t="inlineStr">
+        <is>
+          <t>2025-12-19</t>
+        </is>
+      </c>
+      <c r="B4736" t="n">
+        <v>0.333</v>
+      </c>
+    </row>
+    <row r="4737">
+      <c r="A4737" t="inlineStr">
+        <is>
+          <t>2025-12-20</t>
+        </is>
+      </c>
+      <c r="B4737" t="n">
+        <v>0.368</v>
+      </c>
+    </row>
+    <row r="4738">
+      <c r="A4738" t="inlineStr">
+        <is>
+          <t>2025-12-21</t>
+        </is>
+      </c>
+      <c r="B4738" t="n">
+        <v>0.364</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_nupl.xlsx
+++ b/data_cripto/btc_nupl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4738"/>
+  <dimension ref="A1:B4740"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47815,6 +47815,26 @@
         <v>0.364</v>
       </c>
     </row>
+    <row r="4739">
+      <c r="A4739" t="inlineStr">
+        <is>
+          <t>2025-12-22</t>
+        </is>
+      </c>
+      <c r="B4739" t="n">
+        <v>0.361</v>
+      </c>
+    </row>
+    <row r="4740">
+      <c r="A4740" t="inlineStr">
+        <is>
+          <t>2025-12-23</t>
+        </is>
+      </c>
+      <c r="B4740" t="n">
+        <v>0.355</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_nupl.xlsx
+++ b/data_cripto/btc_nupl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4740"/>
+  <dimension ref="A1:B4745"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47835,6 +47835,56 @@
         <v>0.355</v>
       </c>
     </row>
+    <row r="4741">
+      <c r="A4741" t="inlineStr">
+        <is>
+          <t>2025-12-24</t>
+        </is>
+      </c>
+      <c r="B4741" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="4742">
+      <c r="A4742" t="inlineStr">
+        <is>
+          <t>2025-12-25</t>
+        </is>
+      </c>
+      <c r="B4742" t="n">
+        <v>0.366</v>
+      </c>
+    </row>
+    <row r="4743">
+      <c r="A4743" t="inlineStr">
+        <is>
+          <t>2025-12-26</t>
+        </is>
+      </c>
+      <c r="B4743" t="n">
+        <v>0.363</v>
+      </c>
+    </row>
+    <row r="4744">
+      <c r="A4744" t="inlineStr">
+        <is>
+          <t>2025-12-27</t>
+        </is>
+      </c>
+      <c r="B4744" t="n">
+        <v>0.358</v>
+      </c>
+    </row>
+    <row r="4745">
+      <c r="A4745" t="inlineStr">
+        <is>
+          <t>2025-12-28</t>
+        </is>
+      </c>
+      <c r="B4745" t="n">
+        <v>0.376</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_nupl.xlsx
+++ b/data_cripto/btc_nupl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4745"/>
+  <dimension ref="A1:B4747"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47885,6 +47885,26 @@
         <v>0.376</v>
       </c>
     </row>
+    <row r="4746">
+      <c r="A4746" t="inlineStr">
+        <is>
+          <t>2025-12-29</t>
+        </is>
+      </c>
+      <c r="B4746" t="n">
+        <v>0.365</v>
+      </c>
+    </row>
+    <row r="4747">
+      <c r="A4747" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="B4747" t="n">
+        <v>0.361</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
